--- a/docs/Waveform_Generator_BOM.xlsx
+++ b/docs/Waveform_Generator_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\AD9833_FeatherWing\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\AD9833_FeatherWing\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62173BCD-DC1E-4071-80F7-A1C6C554BD31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79895A9F-C6C2-46E4-A351-D05D879C1E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
+    <workbookView xWindow="3120" yWindow="-14130" windowWidth="21645" windowHeight="13410" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Waveform_Generator" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>C7</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=AD9833BRMZ-REEL7CT-ND%20</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=490-2882-ND%20</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=535-10078-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=296-7487-1-nd</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,7 @@
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +612,7 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -830,7 +842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -843,8 +855,11 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -857,8 +872,11 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -871,8 +889,11 @@
       <c r="D20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -884,6 +905,9 @@
       </c>
       <c r="D21" t="s">
         <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Waveform_Generator_BOM.xlsx
+++ b/docs/Waveform_Generator_BOM.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\AD9833_FeatherWing\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79895A9F-C6C2-46E4-A351-D05D879C1E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770CF86-7B70-4699-8805-C8D8C2D7512C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="-14130" windowWidth="21645" windowHeight="13410" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
+    <workbookView xWindow="3015" yWindow="-15015" windowWidth="21645" windowHeight="14340" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Waveform_Generator" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>C7</t>
   </si>
@@ -28,9 +23,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -43,15 +35,9 @@
     <t>R4</t>
   </si>
   <si>
-    <t>24.5K</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>GRN</t>
   </si>
   <si>
@@ -82,36 +68,15 @@
     <t>20pF</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>0.01uF</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
     <t>ASV-25.000MHZ-E-T</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -185,13 +150,37 @@
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=296-7487-1-nd</t>
+  </si>
+  <si>
+    <t>C3, C5</t>
+  </si>
+  <si>
+    <t>C1, C2, C6, C8</t>
+  </si>
+  <si>
+    <t>capacitor, tantalum</t>
+  </si>
+  <si>
+    <t>C9, C11</t>
+  </si>
+  <si>
+    <t>25.5K</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=1497-1377-1-ND</t>
+  </si>
+  <si>
+    <t>LED, reverse mount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +198,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,15 +234,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -287,10 +287,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85DFD2CE-1133-4D5F-8F35-5FAA7F7D8042}" name="Table1" displayName="Table1" ref="A2:E21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:E21" xr:uid="{7D4C723A-1A8D-4D9A-9EF1-02E8FA875868}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
-    <sortCondition ref="A2:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85DFD2CE-1133-4D5F-8F35-5FAA7F7D8042}" name="Table1" displayName="Table1" ref="A2:E16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:E16" xr:uid="{7D4C723A-1A8D-4D9A-9EF1-02E8FA875868}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{76148BB2-2850-4018-9E2D-F8E020CB89FF}" name="Reference"/>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,305 +617,245 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{6B9B8E82-08F2-4234-BEE9-9350D323958F}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{BC931484-8A50-488D-AE65-20B3A9B5A6FF}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{B17E9674-E17A-4244-8773-7718E42E2684}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{C6E41160-4939-423A-9D97-A57E16A531FC}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{317833CE-E068-4AB5-86A2-4F7520E4DEF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>